--- a/Homework/MIL/comps.xlsx
+++ b/Homework/MIL/comps.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanbaep2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanbaep2/Desktop/FIN521/Homework/MIL/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="2"/>
+    <workbookView xWindow="15860" yWindow="460" windowWidth="19200" windowHeight="11600"/>
   </bookViews>
   <sheets>
     <sheet name="Formula" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,15 @@
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -59,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>KO</t>
   </si>
@@ -125,6 +131,9 @@
   </si>
   <si>
     <t>UklDRS4BAAAAxxqNAAIAAAAGMTE4LjI4AEGQffv4k9UIOSpYXPmT1Qg=</t>
+  </si>
+  <si>
+    <t>Cash</t>
   </si>
 </sst>
 </file>
@@ -443,23 +452,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F15"/>
+  <dimension ref="B1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C1" s="1">
         <v>43186</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -473,7 +482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -490,11 +499,11 @@
         <v>820.678</v>
       </c>
       <c r="F3">
-        <f>AVERAGE(C3:E3)</f>
+        <f t="shared" ref="F3:F8" si="0">AVERAGE(C3:E3)</f>
         <v>1048.2259999999999</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -511,32 +520,29 @@
         <v>56.25</v>
       </c>
       <c r="F4">
-        <f>AVERAGE(C4:E4)</f>
+        <f t="shared" si="0"/>
         <v>72.473333333333343</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5">
-        <f>C4 / C3</f>
-        <v>3.4366987179487177E-2</v>
+        <v>38.92</v>
       </c>
       <c r="D5">
-        <f>D4 / D3</f>
-        <v>0.10992565055762082</v>
+        <v>27.73</v>
       </c>
       <c r="E5">
-        <f>E4 / E3</f>
-        <v>6.8540889362210269E-2</v>
+        <v>39.61</v>
       </c>
       <c r="F5">
-        <f>AVERAGE(C5:E5)</f>
-        <v>7.0944509033106076E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>35.42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -553,11 +559,11 @@
         <v>31009.76928</v>
       </c>
       <c r="F6">
-        <f>AVERAGE(C6:E6)</f>
+        <f t="shared" si="0"/>
         <v>89252.18210333334</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -574,11 +580,11 @@
         <v>1283.0840000000001</v>
       </c>
       <c r="F7">
-        <f>AVERAGE(C7:E7)</f>
+        <f t="shared" si="0"/>
         <v>4577.3613333333333</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -595,16 +601,16 @@
         <v>24.168152108513549</v>
       </c>
       <c r="F8">
-        <f>AVERAGE(C8:E8)</f>
+        <f t="shared" si="0"/>
         <v>19.955305524544048</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -616,16 +622,15 @@
         <v>14</v>
       </c>
       <c r="F11">
-        <f>C11 * F5</f>
-        <v>344.57748037379622</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+        <f>C11 * F5 / C16</f>
+        <v>121.15919291039837</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>4</v>
       </c>
       <c r="C13">
-        <f>_xll.ciqfunctions.udf.CIQ(C10, "IQ_EBITDA", "FY2017")</f>
         <v>12723</v>
       </c>
       <c r="E13" t="s">
@@ -636,7 +641,7 @@
         <v>253891.35218877392</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>10</v>
       </c>
@@ -647,15 +652,23 @@
         <v>14</v>
       </c>
       <c r="F14">
-        <f>(F13 - C14) / C15</f>
-        <v>151.14381451470379</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+        <f>(F13 - C14 + C15) / C16</f>
+        <v>158.61612820155906</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15">
+        <v>10610</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>1419.9082699999999</v>
       </c>
     </row>
@@ -671,9 +684,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>7</v>
       </c>
@@ -703,13 +716,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F15"/>
+  <dimension ref="B2:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:F16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -723,7 +738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -740,7 +755,7 @@
         <v>1048.2259999999999</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -757,7 +772,7 @@
         <v>72.473333333333343</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -774,7 +789,7 @@
         <v>7.0944509033106076E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -791,7 +806,7 @@
         <v>89252.18210333334</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -808,7 +823,7 @@
         <v>4577.3613333333333</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -825,12 +840,12 @@
         <v>19.955305524544048</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -841,10 +856,10 @@
         <v>14</v>
       </c>
       <c r="F11">
-        <v>344.57748037379622</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+        <v>344.57748037379599</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -858,7 +873,7 @@
         <v>253891.35218877392</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>10</v>
       </c>
@@ -869,14 +884,22 @@
         <v>14</v>
       </c>
       <c r="F14">
-        <v>151.14381451470379</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+        <v>158.61612820155906</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15">
+        <v>10610</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>1419.9082699999999</v>
       </c>
     </row>
